--- a/biology/Botanique/Boechera/Boechera.xlsx
+++ b/biology/Botanique/Boechera/Boechera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boechera est un genre de plante herbacée de la famille des Brassicaceae exclusivement originaire d'Amérique du Nord et du Groenland, qui étaient classées autrefois dans le genre Arabis, jusqu'à la récente classification des botanistes Michael Windham et Ihsan Al-Shehbaz. Il a été nommé ainsi en l'honneur du botaniste danois Tyge Wittrock Böcher (1909-1983) et comprend 110 espèces.
 </t>
@@ -511,7 +523,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Boechera breweri
 Boechera canadensis
